--- a/src/main/resources/Output.xlsx
+++ b/src/main/resources/Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fruits</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Price per (Kg)</t>
   </si>
 </sst>
 </file>
@@ -153,6 +156,14 @@
         <v>40.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
